--- a/feature/harmonize-profiles-descriptions/ig/ValueSet-sas-sos-valueset-typecreneau.xlsx
+++ b/feature/harmonize-profiles-descriptions/ig/ValueSet-sas-sos-valueset-typecreneau.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:53:35+00:00</t>
+    <t>2024-12-03T17:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
